--- a/test.xlsx
+++ b/test.xlsx
@@ -5,7 +5,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="real_test2" sheetId="3" r:id="rId3"/>
+    <sheet name="okayyhmm" sheetId="3" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
@@ -6641,7 +6641,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L127"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -6657,639 +6657,588 @@
         <v>staff_code</v>
       </c>
       <c r="D1" t="str">
-        <v>Total_Point</v>
+        <v>Total_point</v>
       </c>
       <c r="E1" t="str">
-        <v>before_change</v>
+        <v>Does your teacher come well prepared to the class?</v>
       </c>
       <c r="F1" t="str">
-        <v>Does your teacher come well prepared to the class?</v>
+        <v>Does the lecture provide conceptual clarity?</v>
       </c>
       <c r="G1" t="str">
-        <v>Does the lecture provide conceptual clarity?</v>
+        <v>The course involves primarily descriptive topics. Explanation of the principles, linking concepts and ideas with real life applications through case studies and demonstration by the faculty?</v>
       </c>
       <c r="H1" t="str">
-        <v>The course involves primarily descriptive topics. Explanation of the principles, linking concepts and ideas with real life applications through case studies and demonstration by the faculty?</v>
+        <v>Does your teacher provide more information than the text book?</v>
       </c>
       <c r="I1" t="str">
-        <v>Does your teacher provide more information than the text book?</v>
+        <v>Is the voice of your teacher clear and audible?</v>
       </c>
       <c r="J1" t="str">
-        <v>Is the voice of your teacher clear and audible?</v>
+        <v>How are the communication skills of the faculty member?</v>
       </c>
       <c r="K1" t="str">
-        <v>How are the communication skills of the faculty member?</v>
-      </c>
-      <c r="L1" t="str">
         <v>Does your teacher hold attention of all the students in the class?</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Ms. S. Abiramy</v>
+        <v>Dr.T.Anitha</v>
       </c>
       <c r="B2" t="str">
-        <v>OBM1902</v>
+        <v>BT19501</v>
       </c>
       <c r="C2" t="str">
-        <v>BM73</v>
+        <v>BT122</v>
       </c>
       <c r="D2">
-        <v>41</v>
+        <v>40.114285714285714</v>
       </c>
       <c r="E2">
-        <v>4.1</v>
+        <v>3.238095238095238</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>6.514285714285714</v>
       </c>
       <c r="G2">
-        <v>3.975</v>
+        <v>6.476190476190476</v>
       </c>
       <c r="H2">
-        <v>4.075</v>
+        <v>7.857142857142857</v>
       </c>
       <c r="I2">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="J2">
-        <v>3.85</v>
+        <v>4.828571428571429</v>
       </c>
       <c r="K2">
-        <v>3.875</v>
-      </c>
-      <c r="L2">
-        <v>4.1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Ms. S. Abiramy</v>
+        <v>Dr.R.Jayasree</v>
       </c>
       <c r="B3" t="str">
-        <v>OBM1902</v>
+        <v>BT19502</v>
       </c>
       <c r="C3" t="str">
-        <v>BM73</v>
+        <v>BT105</v>
       </c>
       <c r="D3">
-        <v>41</v>
+        <v>42.51428571428571</v>
       </c>
       <c r="E3">
-        <v>4.1</v>
+        <v>3.4476190476190474</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>6.780952380952381</v>
       </c>
       <c r="G3">
-        <v>3.975</v>
+        <v>6.742857142857143</v>
       </c>
       <c r="H3">
-        <v>4.075</v>
+        <v>8.428571428571429</v>
       </c>
       <c r="I3">
-        <v>3.9</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="J3">
-        <v>3.85</v>
+        <v>5.257142857142858</v>
       </c>
       <c r="K3">
-        <v>3.875</v>
-      </c>
-      <c r="L3">
-        <v>4.1</v>
+        <v>8.523809523809524</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Ms. S. Abiramy</v>
+        <v>Dr.R.V.Hemavathy</v>
       </c>
       <c r="B4" t="str">
-        <v>OBM1902</v>
+        <v>BT19503</v>
       </c>
       <c r="C4" t="str">
-        <v>BM73</v>
+        <v>BT131</v>
       </c>
       <c r="D4">
-        <v>41</v>
+        <v>42.05714285714285</v>
       </c>
       <c r="E4">
-        <v>4.1</v>
+        <v>3.3523809523809525</v>
       </c>
       <c r="F4">
-        <v>4</v>
+        <v>6.628571428571429</v>
       </c>
       <c r="G4">
-        <v>3.975</v>
+        <v>6.704761904761905</v>
       </c>
       <c r="H4">
-        <v>4.075</v>
+        <v>8.19047619047619</v>
       </c>
       <c r="I4">
-        <v>3.9</v>
+        <v>3.4666666666666663</v>
       </c>
       <c r="J4">
-        <v>3.85</v>
+        <v>5.142857142857142</v>
       </c>
       <c r="K4">
-        <v>3.875</v>
-      </c>
-      <c r="L4">
-        <v>4.1</v>
+        <v>8.571428571428571</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Ms. S. Abiramy</v>
+        <v>Dr.M.Sankar</v>
       </c>
       <c r="B5" t="str">
-        <v>OBM1902</v>
+        <v>BT19504</v>
       </c>
       <c r="C5" t="str">
-        <v>BM73</v>
+        <v>BT33</v>
       </c>
       <c r="D5">
-        <v>41</v>
+        <v>46.238095238095234</v>
       </c>
       <c r="E5">
-        <v>4.1</v>
+        <v>3.7333333333333334</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>7.428571428571429</v>
       </c>
       <c r="G5">
-        <v>3.975</v>
+        <v>7.39047619047619</v>
       </c>
       <c r="H5">
-        <v>4.075</v>
+        <v>9.238095238095237</v>
       </c>
       <c r="I5">
-        <v>3.9</v>
+        <v>3.7142857142857144</v>
       </c>
       <c r="J5">
-        <v>3.85</v>
+        <v>5.542857142857143</v>
       </c>
       <c r="K5">
-        <v>3.875</v>
-      </c>
-      <c r="L5">
-        <v>4.1</v>
+        <v>9.19047619047619</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Ms. S. Abiramy</v>
+        <v>Dr.T.Anitha</v>
       </c>
       <c r="B6" t="str">
-        <v>OBM1902</v>
+        <v>BT19501</v>
       </c>
       <c r="C6" t="str">
-        <v>BM73</v>
+        <v>BT122</v>
       </c>
       <c r="D6">
-        <v>41</v>
+        <v>42.725</v>
       </c>
       <c r="E6">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>6.8</v>
       </c>
       <c r="G6">
-        <v>3.975</v>
+        <v>6.7666666666666675</v>
       </c>
       <c r="H6">
-        <v>4.075</v>
+        <v>8.541666666666666</v>
       </c>
       <c r="I6">
-        <v>3.9</v>
+        <v>3.4166666666666665</v>
       </c>
       <c r="J6">
-        <v>3.85</v>
+        <v>5.324999999999999</v>
       </c>
       <c r="K6">
-        <v>3.875</v>
-      </c>
-      <c r="L6">
-        <v>4.1</v>
+        <v>8.375</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Ms. S. Abiramy</v>
+        <v>Dr.B.Vijayageetha</v>
       </c>
       <c r="B7" t="str">
-        <v>OBM1902</v>
+        <v>BT19502</v>
       </c>
       <c r="C7" t="str">
-        <v>BM73</v>
+        <v>BT114</v>
       </c>
       <c r="D7">
-        <v>41</v>
+        <v>42.75833333333334</v>
       </c>
       <c r="E7">
-        <v>4.1</v>
+        <v>3.4833333333333334</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>6.7</v>
       </c>
       <c r="G7">
-        <v>3.975</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="H7">
-        <v>4.075</v>
+        <v>8.333333333333334</v>
       </c>
       <c r="I7">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="J7">
-        <v>3.85</v>
+        <v>5.225</v>
       </c>
       <c r="K7">
-        <v>3.875</v>
-      </c>
-      <c r="L7">
-        <v>4.1</v>
+        <v>8.75</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Ms. S. Abiramy</v>
+        <v>Dr.RV.Hemavathy</v>
       </c>
       <c r="B8" t="str">
-        <v>OBM1902</v>
+        <v>BT19503</v>
       </c>
       <c r="C8" t="str">
-        <v>BM73</v>
+        <v>BT131</v>
       </c>
       <c r="D8">
-        <v>41</v>
+        <v>43.916666666666664</v>
       </c>
       <c r="E8">
-        <v>4.1</v>
+        <v>3.5833333333333335</v>
       </c>
       <c r="F8">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G8">
-        <v>3.975</v>
+        <v>6.9</v>
       </c>
       <c r="H8">
-        <v>4.075</v>
+        <v>8.666666666666666</v>
       </c>
       <c r="I8">
-        <v>3.9</v>
+        <v>3.6833333333333336</v>
       </c>
       <c r="J8">
-        <v>3.85</v>
+        <v>5.25</v>
       </c>
       <c r="K8">
-        <v>3.875</v>
-      </c>
-      <c r="L8">
-        <v>4.1</v>
+        <v>8.833333333333334</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Ms. S. Abiramy</v>
+        <v>Ms.Sujagayathri</v>
       </c>
       <c r="B9" t="str">
-        <v>OBM1902</v>
+        <v>BT19504</v>
       </c>
       <c r="C9" t="str">
-        <v>BM73</v>
+        <v>BT174</v>
       </c>
       <c r="D9">
-        <v>41</v>
+        <v>43.58333333333333</v>
       </c>
       <c r="E9">
-        <v>4.1</v>
+        <v>3.4833333333333334</v>
       </c>
       <c r="F9">
-        <v>4</v>
+        <v>6.7333333333333325</v>
       </c>
       <c r="G9">
-        <v>3.975</v>
+        <v>6.9</v>
       </c>
       <c r="H9">
-        <v>4.075</v>
+        <v>8.666666666666666</v>
       </c>
       <c r="I9">
-        <v>3.9</v>
+        <v>3.5333333333333337</v>
       </c>
       <c r="J9">
-        <v>3.85</v>
+        <v>5.35</v>
       </c>
       <c r="K9">
-        <v>3.875</v>
-      </c>
-      <c r="L9">
-        <v>4.1</v>
+        <v>8.916666666666666</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Ms. S. Abiramy</v>
+        <v>Dr.R.Anila</v>
       </c>
       <c r="B10" t="str">
-        <v>OBM1902</v>
+        <v>BT19501</v>
       </c>
       <c r="C10" t="str">
-        <v>BM73</v>
+        <v>BT85</v>
       </c>
       <c r="D10">
-        <v>41</v>
+        <v>44.59090909090909</v>
       </c>
       <c r="E10">
-        <v>4.1</v>
+        <v>3.5636363636363635</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>7.127272727272727</v>
       </c>
       <c r="G10">
-        <v>3.975</v>
+        <v>7.127272727272727</v>
       </c>
       <c r="H10">
-        <v>4.075</v>
+        <v>8.545454545454545</v>
       </c>
       <c r="I10">
-        <v>3.9</v>
+        <v>3.672727272727273</v>
       </c>
       <c r="J10">
-        <v>3.85</v>
+        <v>5.50909090909091</v>
       </c>
       <c r="K10">
-        <v>3.875</v>
-      </c>
-      <c r="L10">
-        <v>4.1</v>
+        <v>9.045454545454545</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Ms. S. Abiramy</v>
+        <v>Ms.SR.Saranya</v>
       </c>
       <c r="B11" t="str">
-        <v>OBM1902</v>
+        <v>BT19502</v>
       </c>
       <c r="C11" t="str">
-        <v>BM73</v>
+        <v>BT165</v>
       </c>
       <c r="D11">
-        <v>41</v>
+        <v>36.627272727272725</v>
       </c>
       <c r="E11">
-        <v>4.1</v>
+        <v>3.1818181818181817</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>5.5636363636363635</v>
       </c>
       <c r="G11">
-        <v>3.975</v>
+        <v>6.036363636363637</v>
       </c>
       <c r="H11">
-        <v>4.075</v>
+        <v>7.818181818181818</v>
       </c>
       <c r="I11">
-        <v>3.9</v>
+        <v>2.8363636363636364</v>
       </c>
       <c r="J11">
-        <v>3.85</v>
+        <v>4.418181818181818</v>
       </c>
       <c r="K11">
-        <v>3.875</v>
-      </c>
-      <c r="L11">
-        <v>4.1</v>
+        <v>6.7727272727272725</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Ms. S. Abiramy</v>
+        <v>Ms.Sangeetha gandhi</v>
       </c>
       <c r="B12" t="str">
-        <v>OBM1902</v>
+        <v>BT19503</v>
       </c>
       <c r="C12" t="str">
-        <v>BM73</v>
+        <v>BT169</v>
       </c>
       <c r="D12">
-        <v>41</v>
+        <v>37.18181818181819</v>
       </c>
       <c r="E12">
-        <v>4.1</v>
+        <v>3.036363636363636</v>
       </c>
       <c r="F12">
-        <v>4</v>
+        <v>5.890909090909091</v>
       </c>
       <c r="G12">
-        <v>3.975</v>
+        <v>5.818181818181818</v>
       </c>
       <c r="H12">
-        <v>4.075</v>
+        <v>7.40909090909091</v>
       </c>
       <c r="I12">
-        <v>3.9</v>
+        <v>3.109090909090909</v>
       </c>
       <c r="J12">
-        <v>3.85</v>
+        <v>4.554545454545455</v>
       </c>
       <c r="K12">
-        <v>3.875</v>
-      </c>
-      <c r="L12">
-        <v>4.1</v>
+        <v>7.363636363636363</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Ms. S. Abiramy</v>
+        <v>Dr.S.Thiruvengadam</v>
       </c>
       <c r="B13" t="str">
-        <v>OBM1902</v>
+        <v>BT19504</v>
       </c>
       <c r="C13" t="str">
-        <v>BM73</v>
+        <v>BT109</v>
       </c>
       <c r="D13">
-        <v>41</v>
+        <v>44.77272727272727</v>
       </c>
       <c r="E13">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="F13">
-        <v>4</v>
+        <v>7.090909090909091</v>
       </c>
       <c r="G13">
-        <v>3.975</v>
+        <v>7.0181818181818185</v>
       </c>
       <c r="H13">
-        <v>4.075</v>
+        <v>9</v>
       </c>
       <c r="I13">
-        <v>3.9</v>
+        <v>3.581818181818182</v>
       </c>
       <c r="J13">
-        <v>3.85</v>
+        <v>5.481818181818182</v>
       </c>
       <c r="K13">
-        <v>3.875</v>
-      </c>
-      <c r="L13">
-        <v>4.1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Ms. S. Abiramy</v>
+        <v>Mr.T.Babu</v>
       </c>
       <c r="B14" t="str">
-        <v>OBM1902</v>
+        <v>BT19P51</v>
       </c>
       <c r="C14" t="str">
-        <v>BM73</v>
+        <v>BT106</v>
       </c>
       <c r="D14">
-        <v>41</v>
+        <v>45.192156862745094</v>
       </c>
       <c r="E14">
-        <v>4.1</v>
+        <v>3.6862745098039214</v>
       </c>
       <c r="F14">
-        <v>4</v>
+        <v>7.403921568627451</v>
       </c>
       <c r="G14">
-        <v>3.975</v>
+        <v>7.184313725490196</v>
       </c>
       <c r="H14">
-        <v>4.075</v>
+        <v>8.980392156862745</v>
       </c>
       <c r="I14">
-        <v>3.9</v>
+        <v>3.5450980392156866</v>
       </c>
       <c r="J14">
-        <v>3.85</v>
+        <v>5.294117647058824</v>
       </c>
       <c r="K14">
-        <v>3.875</v>
-      </c>
-      <c r="L14">
-        <v>4.1</v>
+        <v>9.098039215686274</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Ms. S. Abiramy</v>
+        <v>Ms.Sujagayathri</v>
       </c>
       <c r="B15" t="str">
-        <v>OBM1902</v>
+        <v>BT19P51</v>
       </c>
       <c r="C15" t="str">
-        <v>BM73</v>
+        <v>BT174</v>
       </c>
       <c r="D15">
-        <v>41</v>
+        <v>42.791666666666664</v>
       </c>
       <c r="E15">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="F15">
-        <v>4</v>
+        <v>6.8</v>
       </c>
       <c r="G15">
-        <v>3.975</v>
+        <v>6.833333333333333</v>
       </c>
       <c r="H15">
-        <v>4.075</v>
+        <v>8.291666666666666</v>
       </c>
       <c r="I15">
-        <v>3.9</v>
+        <v>3.4833333333333334</v>
       </c>
       <c r="J15">
-        <v>3.85</v>
+        <v>5.175000000000001</v>
       </c>
       <c r="K15">
-        <v>3.875</v>
-      </c>
-      <c r="L15">
-        <v>4.1</v>
+        <v>8.708333333333334</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Ms. S. Abiramy</v>
+        <v>Dr.V.Gayathiri</v>
       </c>
       <c r="B16" t="str">
-        <v>OBM1902</v>
+        <v>BT19P52</v>
       </c>
       <c r="C16" t="str">
-        <v>BM73</v>
+        <v>BT17</v>
       </c>
       <c r="D16">
-        <v>41</v>
+        <v>42.70857142857143</v>
       </c>
       <c r="E16">
-        <v>4.1</v>
+        <v>3.4057142857142857</v>
       </c>
       <c r="F16">
-        <v>4</v>
+        <v>6.811428571428571</v>
       </c>
       <c r="G16">
-        <v>3.975</v>
+        <v>6.720000000000001</v>
       </c>
       <c r="H16">
-        <v>4.075</v>
+        <v>8.571428571428571</v>
       </c>
       <c r="I16">
-        <v>3.9</v>
+        <v>3.382857142857143</v>
       </c>
       <c r="J16">
-        <v>3.85</v>
+        <v>5.2457142857142856</v>
       </c>
       <c r="K16">
-        <v>3.875</v>
-      </c>
-      <c r="L16">
-        <v>4.1</v>
+        <v>8.571428571428571</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Ms. S. Abiramy</v>
+        <v>Ms.E.Karupathal</v>
       </c>
       <c r="B17" t="str">
-        <v>OBM1902</v>
+        <v>OBM1901</v>
       </c>
       <c r="C17" t="str">
-        <v>BM73</v>
+        <v>BM60</v>
       </c>
       <c r="D17">
-        <v>41</v>
+        <v>39.91724137931035</v>
       </c>
       <c r="E17">
-        <v>4.1</v>
+        <v>3.2827586206896555</v>
       </c>
       <c r="F17">
-        <v>4</v>
+        <v>6.455172413793103</v>
       </c>
       <c r="G17">
-        <v>3.975</v>
+        <v>6.455172413793103</v>
       </c>
       <c r="H17">
-        <v>4.075</v>
+        <v>7.827586206896552</v>
       </c>
       <c r="I17">
-        <v>3.9</v>
+        <v>3.296551724137931</v>
       </c>
       <c r="J17">
-        <v>3.85</v>
+        <v>4.841379310344827</v>
       </c>
       <c r="K17">
-        <v>3.875</v>
-      </c>
-      <c r="L17">
-        <v>4.1</v>
+        <v>7.758620689655173</v>
       </c>
     </row>
     <row r="18">
@@ -7303,31 +7252,28 @@
         <v>BM73</v>
       </c>
       <c r="D18">
-        <v>41</v>
+        <v>46.05555555555556</v>
       </c>
       <c r="E18">
-        <v>4.1</v>
+        <v>3.7111111111111112</v>
       </c>
       <c r="F18">
-        <v>4</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="G18">
-        <v>3.975</v>
+        <v>7.4222222222222225</v>
       </c>
       <c r="H18">
-        <v>4.075</v>
+        <v>9.055555555555555</v>
       </c>
       <c r="I18">
-        <v>3.9</v>
+        <v>3.6444444444444444</v>
       </c>
       <c r="J18">
-        <v>3.85</v>
+        <v>5.5</v>
       </c>
       <c r="K18">
-        <v>3.875</v>
-      </c>
-      <c r="L18">
-        <v>4.1</v>
+        <v>9.38888888888889</v>
       </c>
     </row>
     <row r="19">
@@ -7341,4140 +7287,33 @@
         <v>BM73</v>
       </c>
       <c r="D19">
-        <v>41</v>
+        <v>39.81</v>
       </c>
       <c r="E19">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="F19">
-        <v>4</v>
+        <v>6.36</v>
       </c>
       <c r="G19">
-        <v>3.975</v>
+        <v>6.5200000000000005</v>
       </c>
       <c r="H19">
-        <v>4.075</v>
+        <v>7.800000000000001</v>
       </c>
       <c r="I19">
-        <v>3.9</v>
+        <v>3.08</v>
       </c>
       <c r="J19">
-        <v>3.85</v>
+        <v>4.65</v>
       </c>
       <c r="K19">
-        <v>3.875</v>
-      </c>
-      <c r="L19">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B20" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C20" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D20">
-        <v>41</v>
-      </c>
-      <c r="E20">
-        <v>4.1</v>
-      </c>
-      <c r="F20">
-        <v>4</v>
-      </c>
-      <c r="G20">
-        <v>3.975</v>
-      </c>
-      <c r="H20">
-        <v>4.075</v>
-      </c>
-      <c r="I20">
-        <v>3.9</v>
-      </c>
-      <c r="J20">
-        <v>3.85</v>
-      </c>
-      <c r="K20">
-        <v>3.875</v>
-      </c>
-      <c r="L20">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B21" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C21" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D21">
-        <v>41</v>
-      </c>
-      <c r="E21">
-        <v>4.1</v>
-      </c>
-      <c r="F21">
-        <v>4</v>
-      </c>
-      <c r="G21">
-        <v>3.975</v>
-      </c>
-      <c r="H21">
-        <v>4.075</v>
-      </c>
-      <c r="I21">
-        <v>3.9</v>
-      </c>
-      <c r="J21">
-        <v>3.85</v>
-      </c>
-      <c r="K21">
-        <v>3.875</v>
-      </c>
-      <c r="L21">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B22" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C22" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D22">
-        <v>41</v>
-      </c>
-      <c r="E22">
-        <v>4.1</v>
-      </c>
-      <c r="F22">
-        <v>4</v>
-      </c>
-      <c r="G22">
-        <v>3.975</v>
-      </c>
-      <c r="H22">
-        <v>4.075</v>
-      </c>
-      <c r="I22">
-        <v>3.9</v>
-      </c>
-      <c r="J22">
-        <v>3.85</v>
-      </c>
-      <c r="K22">
-        <v>3.875</v>
-      </c>
-      <c r="L22">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B23" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C23" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D23">
-        <v>41</v>
-      </c>
-      <c r="E23">
-        <v>4.1</v>
-      </c>
-      <c r="F23">
-        <v>4</v>
-      </c>
-      <c r="G23">
-        <v>3.975</v>
-      </c>
-      <c r="H23">
-        <v>4.075</v>
-      </c>
-      <c r="I23">
-        <v>3.9</v>
-      </c>
-      <c r="J23">
-        <v>3.85</v>
-      </c>
-      <c r="K23">
-        <v>3.875</v>
-      </c>
-      <c r="L23">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B24" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C24" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D24">
-        <v>41</v>
-      </c>
-      <c r="E24">
-        <v>4.1</v>
-      </c>
-      <c r="F24">
-        <v>4</v>
-      </c>
-      <c r="G24">
-        <v>3.975</v>
-      </c>
-      <c r="H24">
-        <v>4.075</v>
-      </c>
-      <c r="I24">
-        <v>3.9</v>
-      </c>
-      <c r="J24">
-        <v>3.85</v>
-      </c>
-      <c r="K24">
-        <v>3.875</v>
-      </c>
-      <c r="L24">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B25" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C25" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D25">
-        <v>41</v>
-      </c>
-      <c r="E25">
-        <v>4.1</v>
-      </c>
-      <c r="F25">
-        <v>4</v>
-      </c>
-      <c r="G25">
-        <v>3.975</v>
-      </c>
-      <c r="H25">
-        <v>4.075</v>
-      </c>
-      <c r="I25">
-        <v>3.9</v>
-      </c>
-      <c r="J25">
-        <v>3.85</v>
-      </c>
-      <c r="K25">
-        <v>3.875</v>
-      </c>
-      <c r="L25">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B26" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C26" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D26">
-        <v>41</v>
-      </c>
-      <c r="E26">
-        <v>4.1</v>
-      </c>
-      <c r="F26">
-        <v>4</v>
-      </c>
-      <c r="G26">
-        <v>3.975</v>
-      </c>
-      <c r="H26">
-        <v>4.075</v>
-      </c>
-      <c r="I26">
-        <v>3.9</v>
-      </c>
-      <c r="J26">
-        <v>3.85</v>
-      </c>
-      <c r="K26">
-        <v>3.875</v>
-      </c>
-      <c r="L26">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B27" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C27" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D27">
-        <v>41</v>
-      </c>
-      <c r="E27">
-        <v>4.1</v>
-      </c>
-      <c r="F27">
-        <v>4</v>
-      </c>
-      <c r="G27">
-        <v>3.975</v>
-      </c>
-      <c r="H27">
-        <v>4.075</v>
-      </c>
-      <c r="I27">
-        <v>3.9</v>
-      </c>
-      <c r="J27">
-        <v>3.85</v>
-      </c>
-      <c r="K27">
-        <v>3.875</v>
-      </c>
-      <c r="L27">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B28" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C28" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D28">
-        <v>41</v>
-      </c>
-      <c r="E28">
-        <v>4.1</v>
-      </c>
-      <c r="F28">
-        <v>4</v>
-      </c>
-      <c r="G28">
-        <v>3.975</v>
-      </c>
-      <c r="H28">
-        <v>4.075</v>
-      </c>
-      <c r="I28">
-        <v>3.9</v>
-      </c>
-      <c r="J28">
-        <v>3.85</v>
-      </c>
-      <c r="K28">
-        <v>3.875</v>
-      </c>
-      <c r="L28">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B29" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C29" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D29">
-        <v>41</v>
-      </c>
-      <c r="E29">
-        <v>4.1</v>
-      </c>
-      <c r="F29">
-        <v>4</v>
-      </c>
-      <c r="G29">
-        <v>3.975</v>
-      </c>
-      <c r="H29">
-        <v>4.075</v>
-      </c>
-      <c r="I29">
-        <v>3.9</v>
-      </c>
-      <c r="J29">
-        <v>3.85</v>
-      </c>
-      <c r="K29">
-        <v>3.875</v>
-      </c>
-      <c r="L29">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B30" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C30" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D30">
-        <v>41</v>
-      </c>
-      <c r="E30">
-        <v>4.1</v>
-      </c>
-      <c r="F30">
-        <v>4</v>
-      </c>
-      <c r="G30">
-        <v>3.975</v>
-      </c>
-      <c r="H30">
-        <v>4.075</v>
-      </c>
-      <c r="I30">
-        <v>3.9</v>
-      </c>
-      <c r="J30">
-        <v>3.85</v>
-      </c>
-      <c r="K30">
-        <v>3.875</v>
-      </c>
-      <c r="L30">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B31" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C31" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D31">
-        <v>41</v>
-      </c>
-      <c r="E31">
-        <v>4.1</v>
-      </c>
-      <c r="F31">
-        <v>4</v>
-      </c>
-      <c r="G31">
-        <v>3.975</v>
-      </c>
-      <c r="H31">
-        <v>4.075</v>
-      </c>
-      <c r="I31">
-        <v>3.9</v>
-      </c>
-      <c r="J31">
-        <v>3.85</v>
-      </c>
-      <c r="K31">
-        <v>3.875</v>
-      </c>
-      <c r="L31">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B32" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C32" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D32">
-        <v>41</v>
-      </c>
-      <c r="E32">
-        <v>4.1</v>
-      </c>
-      <c r="F32">
-        <v>4</v>
-      </c>
-      <c r="G32">
-        <v>3.975</v>
-      </c>
-      <c r="H32">
-        <v>4.075</v>
-      </c>
-      <c r="I32">
-        <v>3.9</v>
-      </c>
-      <c r="J32">
-        <v>3.85</v>
-      </c>
-      <c r="K32">
-        <v>3.875</v>
-      </c>
-      <c r="L32">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B33" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C33" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D33">
-        <v>41</v>
-      </c>
-      <c r="E33">
-        <v>4.1</v>
-      </c>
-      <c r="F33">
-        <v>4</v>
-      </c>
-      <c r="G33">
-        <v>3.975</v>
-      </c>
-      <c r="H33">
-        <v>4.075</v>
-      </c>
-      <c r="I33">
-        <v>3.9</v>
-      </c>
-      <c r="J33">
-        <v>3.85</v>
-      </c>
-      <c r="K33">
-        <v>3.875</v>
-      </c>
-      <c r="L33">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B34" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C34" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D34">
-        <v>41</v>
-      </c>
-      <c r="E34">
-        <v>4.1</v>
-      </c>
-      <c r="F34">
-        <v>4</v>
-      </c>
-      <c r="G34">
-        <v>3.975</v>
-      </c>
-      <c r="H34">
-        <v>4.075</v>
-      </c>
-      <c r="I34">
-        <v>3.9</v>
-      </c>
-      <c r="J34">
-        <v>3.85</v>
-      </c>
-      <c r="K34">
-        <v>3.875</v>
-      </c>
-      <c r="L34">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B35" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C35" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D35">
-        <v>41</v>
-      </c>
-      <c r="E35">
-        <v>4.1</v>
-      </c>
-      <c r="F35">
-        <v>4</v>
-      </c>
-      <c r="G35">
-        <v>3.975</v>
-      </c>
-      <c r="H35">
-        <v>4.075</v>
-      </c>
-      <c r="I35">
-        <v>3.9</v>
-      </c>
-      <c r="J35">
-        <v>3.85</v>
-      </c>
-      <c r="K35">
-        <v>3.875</v>
-      </c>
-      <c r="L35">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B36" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C36" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D36">
-        <v>41</v>
-      </c>
-      <c r="E36">
-        <v>4.1</v>
-      </c>
-      <c r="F36">
-        <v>4</v>
-      </c>
-      <c r="G36">
-        <v>3.975</v>
-      </c>
-      <c r="H36">
-        <v>4.075</v>
-      </c>
-      <c r="I36">
-        <v>3.9</v>
-      </c>
-      <c r="J36">
-        <v>3.85</v>
-      </c>
-      <c r="K36">
-        <v>3.875</v>
-      </c>
-      <c r="L36">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B37" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C37" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D37">
-        <v>41</v>
-      </c>
-      <c r="E37">
-        <v>4.1</v>
-      </c>
-      <c r="F37">
-        <v>4</v>
-      </c>
-      <c r="G37">
-        <v>3.975</v>
-      </c>
-      <c r="H37">
-        <v>4.075</v>
-      </c>
-      <c r="I37">
-        <v>3.9</v>
-      </c>
-      <c r="J37">
-        <v>3.85</v>
-      </c>
-      <c r="K37">
-        <v>3.875</v>
-      </c>
-      <c r="L37">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B38" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C38" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D38">
-        <v>41</v>
-      </c>
-      <c r="E38">
-        <v>4.1</v>
-      </c>
-      <c r="F38">
-        <v>4</v>
-      </c>
-      <c r="G38">
-        <v>3.975</v>
-      </c>
-      <c r="H38">
-        <v>4.075</v>
-      </c>
-      <c r="I38">
-        <v>3.9</v>
-      </c>
-      <c r="J38">
-        <v>3.85</v>
-      </c>
-      <c r="K38">
-        <v>3.875</v>
-      </c>
-      <c r="L38">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B39" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C39" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D39">
-        <v>41</v>
-      </c>
-      <c r="E39">
-        <v>4.1</v>
-      </c>
-      <c r="F39">
-        <v>4</v>
-      </c>
-      <c r="G39">
-        <v>3.975</v>
-      </c>
-      <c r="H39">
-        <v>4.075</v>
-      </c>
-      <c r="I39">
-        <v>3.9</v>
-      </c>
-      <c r="J39">
-        <v>3.85</v>
-      </c>
-      <c r="K39">
-        <v>3.875</v>
-      </c>
-      <c r="L39">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B40" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C40" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D40">
-        <v>41</v>
-      </c>
-      <c r="E40">
-        <v>4.1</v>
-      </c>
-      <c r="F40">
-        <v>4</v>
-      </c>
-      <c r="G40">
-        <v>3.975</v>
-      </c>
-      <c r="H40">
-        <v>4.075</v>
-      </c>
-      <c r="I40">
-        <v>3.9</v>
-      </c>
-      <c r="J40">
-        <v>3.85</v>
-      </c>
-      <c r="K40">
-        <v>3.875</v>
-      </c>
-      <c r="L40">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B41" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C41" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D41">
-        <v>41</v>
-      </c>
-      <c r="E41">
-        <v>4.1</v>
-      </c>
-      <c r="F41">
-        <v>4</v>
-      </c>
-      <c r="G41">
-        <v>3.975</v>
-      </c>
-      <c r="H41">
-        <v>4.075</v>
-      </c>
-      <c r="I41">
-        <v>3.9</v>
-      </c>
-      <c r="J41">
-        <v>3.85</v>
-      </c>
-      <c r="K41">
-        <v>3.875</v>
-      </c>
-      <c r="L41">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B42" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C42" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D42">
-        <v>41</v>
-      </c>
-      <c r="E42">
-        <v>4.1</v>
-      </c>
-      <c r="F42">
-        <v>4</v>
-      </c>
-      <c r="G42">
-        <v>3.975</v>
-      </c>
-      <c r="H42">
-        <v>4.075</v>
-      </c>
-      <c r="I42">
-        <v>3.9</v>
-      </c>
-      <c r="J42">
-        <v>3.85</v>
-      </c>
-      <c r="K42">
-        <v>3.875</v>
-      </c>
-      <c r="L42">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B43" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C43" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D43">
-        <v>41</v>
-      </c>
-      <c r="E43">
-        <v>4.1</v>
-      </c>
-      <c r="F43">
-        <v>4</v>
-      </c>
-      <c r="G43">
-        <v>3.975</v>
-      </c>
-      <c r="H43">
-        <v>4.075</v>
-      </c>
-      <c r="I43">
-        <v>3.9</v>
-      </c>
-      <c r="J43">
-        <v>3.85</v>
-      </c>
-      <c r="K43">
-        <v>3.875</v>
-      </c>
-      <c r="L43">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B44" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C44" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D44">
-        <v>41</v>
-      </c>
-      <c r="E44">
-        <v>4.1</v>
-      </c>
-      <c r="F44">
-        <v>4</v>
-      </c>
-      <c r="G44">
-        <v>3.975</v>
-      </c>
-      <c r="H44">
-        <v>4.075</v>
-      </c>
-      <c r="I44">
-        <v>3.9</v>
-      </c>
-      <c r="J44">
-        <v>3.85</v>
-      </c>
-      <c r="K44">
-        <v>3.875</v>
-      </c>
-      <c r="L44">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B45" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C45" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D45">
-        <v>41</v>
-      </c>
-      <c r="E45">
-        <v>4.1</v>
-      </c>
-      <c r="F45">
-        <v>4</v>
-      </c>
-      <c r="G45">
-        <v>3.975</v>
-      </c>
-      <c r="H45">
-        <v>4.075</v>
-      </c>
-      <c r="I45">
-        <v>3.9</v>
-      </c>
-      <c r="J45">
-        <v>3.85</v>
-      </c>
-      <c r="K45">
-        <v>3.875</v>
-      </c>
-      <c r="L45">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B46" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C46" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D46">
-        <v>41</v>
-      </c>
-      <c r="E46">
-        <v>4.1</v>
-      </c>
-      <c r="F46">
-        <v>4</v>
-      </c>
-      <c r="G46">
-        <v>3.975</v>
-      </c>
-      <c r="H46">
-        <v>4.075</v>
-      </c>
-      <c r="I46">
-        <v>3.9</v>
-      </c>
-      <c r="J46">
-        <v>3.85</v>
-      </c>
-      <c r="K46">
-        <v>3.875</v>
-      </c>
-      <c r="L46">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B47" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C47" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D47">
-        <v>41</v>
-      </c>
-      <c r="E47">
-        <v>4.1</v>
-      </c>
-      <c r="F47">
-        <v>4</v>
-      </c>
-      <c r="G47">
-        <v>3.975</v>
-      </c>
-      <c r="H47">
-        <v>4.075</v>
-      </c>
-      <c r="I47">
-        <v>3.9</v>
-      </c>
-      <c r="J47">
-        <v>3.85</v>
-      </c>
-      <c r="K47">
-        <v>3.875</v>
-      </c>
-      <c r="L47">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B48" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C48" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D48">
-        <v>41</v>
-      </c>
-      <c r="E48">
-        <v>4.1</v>
-      </c>
-      <c r="F48">
-        <v>4</v>
-      </c>
-      <c r="G48">
-        <v>3.975</v>
-      </c>
-      <c r="H48">
-        <v>4.075</v>
-      </c>
-      <c r="I48">
-        <v>3.9</v>
-      </c>
-      <c r="J48">
-        <v>3.85</v>
-      </c>
-      <c r="K48">
-        <v>3.875</v>
-      </c>
-      <c r="L48">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B49" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C49" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D49">
-        <v>41</v>
-      </c>
-      <c r="E49">
-        <v>4.1</v>
-      </c>
-      <c r="F49">
-        <v>4</v>
-      </c>
-      <c r="G49">
-        <v>3.975</v>
-      </c>
-      <c r="H49">
-        <v>4.075</v>
-      </c>
-      <c r="I49">
-        <v>3.9</v>
-      </c>
-      <c r="J49">
-        <v>3.85</v>
-      </c>
-      <c r="K49">
-        <v>3.875</v>
-      </c>
-      <c r="L49">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B50" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C50" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D50">
-        <v>41</v>
-      </c>
-      <c r="E50">
-        <v>4.1</v>
-      </c>
-      <c r="F50">
-        <v>4</v>
-      </c>
-      <c r="G50">
-        <v>3.975</v>
-      </c>
-      <c r="H50">
-        <v>4.075</v>
-      </c>
-      <c r="I50">
-        <v>3.9</v>
-      </c>
-      <c r="J50">
-        <v>3.85</v>
-      </c>
-      <c r="K50">
-        <v>3.875</v>
-      </c>
-      <c r="L50">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B51" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C51" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D51">
-        <v>41</v>
-      </c>
-      <c r="E51">
-        <v>4.1</v>
-      </c>
-      <c r="F51">
-        <v>4</v>
-      </c>
-      <c r="G51">
-        <v>3.975</v>
-      </c>
-      <c r="H51">
-        <v>4.075</v>
-      </c>
-      <c r="I51">
-        <v>3.9</v>
-      </c>
-      <c r="J51">
-        <v>3.85</v>
-      </c>
-      <c r="K51">
-        <v>3.875</v>
-      </c>
-      <c r="L51">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B52" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C52" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D52">
-        <v>41</v>
-      </c>
-      <c r="E52">
-        <v>4.1</v>
-      </c>
-      <c r="F52">
-        <v>4</v>
-      </c>
-      <c r="G52">
-        <v>3.975</v>
-      </c>
-      <c r="H52">
-        <v>4.075</v>
-      </c>
-      <c r="I52">
-        <v>3.9</v>
-      </c>
-      <c r="J52">
-        <v>3.85</v>
-      </c>
-      <c r="K52">
-        <v>3.875</v>
-      </c>
-      <c r="L52">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B53" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C53" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D53">
-        <v>41</v>
-      </c>
-      <c r="E53">
-        <v>4.1</v>
-      </c>
-      <c r="F53">
-        <v>4</v>
-      </c>
-      <c r="G53">
-        <v>3.975</v>
-      </c>
-      <c r="H53">
-        <v>4.075</v>
-      </c>
-      <c r="I53">
-        <v>3.9</v>
-      </c>
-      <c r="J53">
-        <v>3.85</v>
-      </c>
-      <c r="K53">
-        <v>3.875</v>
-      </c>
-      <c r="L53">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B54" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C54" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D54">
-        <v>41</v>
-      </c>
-      <c r="E54">
-        <v>4.1</v>
-      </c>
-      <c r="F54">
-        <v>4</v>
-      </c>
-      <c r="G54">
-        <v>3.975</v>
-      </c>
-      <c r="H54">
-        <v>4.075</v>
-      </c>
-      <c r="I54">
-        <v>3.9</v>
-      </c>
-      <c r="J54">
-        <v>3.85</v>
-      </c>
-      <c r="K54">
-        <v>3.875</v>
-      </c>
-      <c r="L54">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B55" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C55" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D55">
-        <v>41</v>
-      </c>
-      <c r="E55">
-        <v>4.1</v>
-      </c>
-      <c r="F55">
-        <v>4</v>
-      </c>
-      <c r="G55">
-        <v>3.975</v>
-      </c>
-      <c r="H55">
-        <v>4.075</v>
-      </c>
-      <c r="I55">
-        <v>3.9</v>
-      </c>
-      <c r="J55">
-        <v>3.85</v>
-      </c>
-      <c r="K55">
-        <v>3.875</v>
-      </c>
-      <c r="L55">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B56" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C56" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D56">
-        <v>41</v>
-      </c>
-      <c r="E56">
-        <v>4.1</v>
-      </c>
-      <c r="F56">
-        <v>4</v>
-      </c>
-      <c r="G56">
-        <v>3.975</v>
-      </c>
-      <c r="H56">
-        <v>4.075</v>
-      </c>
-      <c r="I56">
-        <v>3.9</v>
-      </c>
-      <c r="J56">
-        <v>3.85</v>
-      </c>
-      <c r="K56">
-        <v>3.875</v>
-      </c>
-      <c r="L56">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B57" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C57" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D57">
-        <v>41</v>
-      </c>
-      <c r="E57">
-        <v>4.1</v>
-      </c>
-      <c r="F57">
-        <v>4</v>
-      </c>
-      <c r="G57">
-        <v>3.975</v>
-      </c>
-      <c r="H57">
-        <v>4.075</v>
-      </c>
-      <c r="I57">
-        <v>3.9</v>
-      </c>
-      <c r="J57">
-        <v>3.85</v>
-      </c>
-      <c r="K57">
-        <v>3.875</v>
-      </c>
-      <c r="L57">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B58" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C58" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D58">
-        <v>41</v>
-      </c>
-      <c r="E58">
-        <v>4.1</v>
-      </c>
-      <c r="F58">
-        <v>4</v>
-      </c>
-      <c r="G58">
-        <v>3.975</v>
-      </c>
-      <c r="H58">
-        <v>4.075</v>
-      </c>
-      <c r="I58">
-        <v>3.9</v>
-      </c>
-      <c r="J58">
-        <v>3.85</v>
-      </c>
-      <c r="K58">
-        <v>3.875</v>
-      </c>
-      <c r="L58">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B59" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C59" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D59">
-        <v>41</v>
-      </c>
-      <c r="E59">
-        <v>4.1</v>
-      </c>
-      <c r="F59">
-        <v>4</v>
-      </c>
-      <c r="G59">
-        <v>3.975</v>
-      </c>
-      <c r="H59">
-        <v>4.075</v>
-      </c>
-      <c r="I59">
-        <v>3.9</v>
-      </c>
-      <c r="J59">
-        <v>3.85</v>
-      </c>
-      <c r="K59">
-        <v>3.875</v>
-      </c>
-      <c r="L59">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B60" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C60" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D60">
-        <v>41</v>
-      </c>
-      <c r="E60">
-        <v>4.1</v>
-      </c>
-      <c r="F60">
-        <v>4</v>
-      </c>
-      <c r="G60">
-        <v>3.975</v>
-      </c>
-      <c r="H60">
-        <v>4.075</v>
-      </c>
-      <c r="I60">
-        <v>3.9</v>
-      </c>
-      <c r="J60">
-        <v>3.85</v>
-      </c>
-      <c r="K60">
-        <v>3.875</v>
-      </c>
-      <c r="L60">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B61" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C61" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D61">
-        <v>41</v>
-      </c>
-      <c r="E61">
-        <v>4.1</v>
-      </c>
-      <c r="F61">
-        <v>4</v>
-      </c>
-      <c r="G61">
-        <v>3.975</v>
-      </c>
-      <c r="H61">
-        <v>4.075</v>
-      </c>
-      <c r="I61">
-        <v>3.9</v>
-      </c>
-      <c r="J61">
-        <v>3.85</v>
-      </c>
-      <c r="K61">
-        <v>3.875</v>
-      </c>
-      <c r="L61">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B62" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C62" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D62">
-        <v>41</v>
-      </c>
-      <c r="E62">
-        <v>4.1</v>
-      </c>
-      <c r="F62">
-        <v>4</v>
-      </c>
-      <c r="G62">
-        <v>3.975</v>
-      </c>
-      <c r="H62">
-        <v>4.075</v>
-      </c>
-      <c r="I62">
-        <v>3.9</v>
-      </c>
-      <c r="J62">
-        <v>3.85</v>
-      </c>
-      <c r="K62">
-        <v>3.875</v>
-      </c>
-      <c r="L62">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B63" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C63" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D63">
-        <v>41</v>
-      </c>
-      <c r="E63">
-        <v>4.1</v>
-      </c>
-      <c r="F63">
-        <v>4</v>
-      </c>
-      <c r="G63">
-        <v>3.975</v>
-      </c>
-      <c r="H63">
-        <v>4.075</v>
-      </c>
-      <c r="I63">
-        <v>3.9</v>
-      </c>
-      <c r="J63">
-        <v>3.85</v>
-      </c>
-      <c r="K63">
-        <v>3.875</v>
-      </c>
-      <c r="L63">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B64" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C64" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D64">
-        <v>41</v>
-      </c>
-      <c r="E64">
-        <v>4.1</v>
-      </c>
-      <c r="F64">
-        <v>4</v>
-      </c>
-      <c r="G64">
-        <v>3.975</v>
-      </c>
-      <c r="H64">
-        <v>4.075</v>
-      </c>
-      <c r="I64">
-        <v>3.9</v>
-      </c>
-      <c r="J64">
-        <v>3.85</v>
-      </c>
-      <c r="K64">
-        <v>3.875</v>
-      </c>
-      <c r="L64">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B65" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C65" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D65">
-        <v>41</v>
-      </c>
-      <c r="E65">
-        <v>4.1</v>
-      </c>
-      <c r="F65">
-        <v>4</v>
-      </c>
-      <c r="G65">
-        <v>3.975</v>
-      </c>
-      <c r="H65">
-        <v>4.075</v>
-      </c>
-      <c r="I65">
-        <v>3.9</v>
-      </c>
-      <c r="J65">
-        <v>3.85</v>
-      </c>
-      <c r="K65">
-        <v>3.875</v>
-      </c>
-      <c r="L65">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B66" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C66" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D66">
-        <v>41</v>
-      </c>
-      <c r="E66">
-        <v>4.1</v>
-      </c>
-      <c r="F66">
-        <v>4</v>
-      </c>
-      <c r="G66">
-        <v>3.975</v>
-      </c>
-      <c r="H66">
-        <v>4.075</v>
-      </c>
-      <c r="I66">
-        <v>3.9</v>
-      </c>
-      <c r="J66">
-        <v>3.85</v>
-      </c>
-      <c r="K66">
-        <v>3.875</v>
-      </c>
-      <c r="L66">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B67" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C67" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D67">
-        <v>41</v>
-      </c>
-      <c r="E67">
-        <v>4.1</v>
-      </c>
-      <c r="F67">
-        <v>4</v>
-      </c>
-      <c r="G67">
-        <v>3.975</v>
-      </c>
-      <c r="H67">
-        <v>4.075</v>
-      </c>
-      <c r="I67">
-        <v>3.9</v>
-      </c>
-      <c r="J67">
-        <v>3.85</v>
-      </c>
-      <c r="K67">
-        <v>3.875</v>
-      </c>
-      <c r="L67">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B68" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C68" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D68">
-        <v>41</v>
-      </c>
-      <c r="E68">
-        <v>4.1</v>
-      </c>
-      <c r="F68">
-        <v>4</v>
-      </c>
-      <c r="G68">
-        <v>3.975</v>
-      </c>
-      <c r="H68">
-        <v>4.075</v>
-      </c>
-      <c r="I68">
-        <v>3.9</v>
-      </c>
-      <c r="J68">
-        <v>3.85</v>
-      </c>
-      <c r="K68">
-        <v>3.875</v>
-      </c>
-      <c r="L68">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B69" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C69" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D69">
-        <v>41</v>
-      </c>
-      <c r="E69">
-        <v>4.1</v>
-      </c>
-      <c r="F69">
-        <v>4</v>
-      </c>
-      <c r="G69">
-        <v>3.975</v>
-      </c>
-      <c r="H69">
-        <v>4.075</v>
-      </c>
-      <c r="I69">
-        <v>3.9</v>
-      </c>
-      <c r="J69">
-        <v>3.85</v>
-      </c>
-      <c r="K69">
-        <v>3.875</v>
-      </c>
-      <c r="L69">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B70" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C70" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D70">
-        <v>41</v>
-      </c>
-      <c r="E70">
-        <v>4.1</v>
-      </c>
-      <c r="F70">
-        <v>4</v>
-      </c>
-      <c r="G70">
-        <v>3.975</v>
-      </c>
-      <c r="H70">
-        <v>4.075</v>
-      </c>
-      <c r="I70">
-        <v>3.9</v>
-      </c>
-      <c r="J70">
-        <v>3.85</v>
-      </c>
-      <c r="K70">
-        <v>3.875</v>
-      </c>
-      <c r="L70">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B71" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C71" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D71">
-        <v>41</v>
-      </c>
-      <c r="E71">
-        <v>4.1</v>
-      </c>
-      <c r="F71">
-        <v>4</v>
-      </c>
-      <c r="G71">
-        <v>3.975</v>
-      </c>
-      <c r="H71">
-        <v>4.075</v>
-      </c>
-      <c r="I71">
-        <v>3.9</v>
-      </c>
-      <c r="J71">
-        <v>3.85</v>
-      </c>
-      <c r="K71">
-        <v>3.875</v>
-      </c>
-      <c r="L71">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B72" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C72" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D72">
-        <v>41</v>
-      </c>
-      <c r="E72">
-        <v>4.1</v>
-      </c>
-      <c r="F72">
-        <v>4</v>
-      </c>
-      <c r="G72">
-        <v>3.975</v>
-      </c>
-      <c r="H72">
-        <v>4.075</v>
-      </c>
-      <c r="I72">
-        <v>3.9</v>
-      </c>
-      <c r="J72">
-        <v>3.85</v>
-      </c>
-      <c r="K72">
-        <v>3.875</v>
-      </c>
-      <c r="L72">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B73" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C73" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D73">
-        <v>41</v>
-      </c>
-      <c r="E73">
-        <v>4.1</v>
-      </c>
-      <c r="F73">
-        <v>4</v>
-      </c>
-      <c r="G73">
-        <v>3.975</v>
-      </c>
-      <c r="H73">
-        <v>4.075</v>
-      </c>
-      <c r="I73">
-        <v>3.9</v>
-      </c>
-      <c r="J73">
-        <v>3.85</v>
-      </c>
-      <c r="K73">
-        <v>3.875</v>
-      </c>
-      <c r="L73">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B74" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C74" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D74">
-        <v>41</v>
-      </c>
-      <c r="E74">
-        <v>4.1</v>
-      </c>
-      <c r="F74">
-        <v>4</v>
-      </c>
-      <c r="G74">
-        <v>3.975</v>
-      </c>
-      <c r="H74">
-        <v>4.075</v>
-      </c>
-      <c r="I74">
-        <v>3.9</v>
-      </c>
-      <c r="J74">
-        <v>3.85</v>
-      </c>
-      <c r="K74">
-        <v>3.875</v>
-      </c>
-      <c r="L74">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B75" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C75" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D75">
-        <v>41</v>
-      </c>
-      <c r="E75">
-        <v>4.1</v>
-      </c>
-      <c r="F75">
-        <v>4</v>
-      </c>
-      <c r="G75">
-        <v>3.975</v>
-      </c>
-      <c r="H75">
-        <v>4.075</v>
-      </c>
-      <c r="I75">
-        <v>3.9</v>
-      </c>
-      <c r="J75">
-        <v>3.85</v>
-      </c>
-      <c r="K75">
-        <v>3.875</v>
-      </c>
-      <c r="L75">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B76" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C76" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D76">
-        <v>41</v>
-      </c>
-      <c r="E76">
-        <v>4.1</v>
-      </c>
-      <c r="F76">
-        <v>4</v>
-      </c>
-      <c r="G76">
-        <v>3.975</v>
-      </c>
-      <c r="H76">
-        <v>4.075</v>
-      </c>
-      <c r="I76">
-        <v>3.9</v>
-      </c>
-      <c r="J76">
-        <v>3.85</v>
-      </c>
-      <c r="K76">
-        <v>3.875</v>
-      </c>
-      <c r="L76">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B77" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C77" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D77">
-        <v>41</v>
-      </c>
-      <c r="E77">
-        <v>4.1</v>
-      </c>
-      <c r="F77">
-        <v>4</v>
-      </c>
-      <c r="G77">
-        <v>3.975</v>
-      </c>
-      <c r="H77">
-        <v>4.075</v>
-      </c>
-      <c r="I77">
-        <v>3.9</v>
-      </c>
-      <c r="J77">
-        <v>3.85</v>
-      </c>
-      <c r="K77">
-        <v>3.875</v>
-      </c>
-      <c r="L77">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B78" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C78" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D78">
-        <v>41</v>
-      </c>
-      <c r="E78">
-        <v>4.1</v>
-      </c>
-      <c r="F78">
-        <v>4</v>
-      </c>
-      <c r="G78">
-        <v>3.975</v>
-      </c>
-      <c r="H78">
-        <v>4.075</v>
-      </c>
-      <c r="I78">
-        <v>3.9</v>
-      </c>
-      <c r="J78">
-        <v>3.85</v>
-      </c>
-      <c r="K78">
-        <v>3.875</v>
-      </c>
-      <c r="L78">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B79" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C79" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D79">
-        <v>41</v>
-      </c>
-      <c r="E79">
-        <v>4.1</v>
-      </c>
-      <c r="F79">
-        <v>4</v>
-      </c>
-      <c r="G79">
-        <v>3.975</v>
-      </c>
-      <c r="H79">
-        <v>4.075</v>
-      </c>
-      <c r="I79">
-        <v>3.9</v>
-      </c>
-      <c r="J79">
-        <v>3.85</v>
-      </c>
-      <c r="K79">
-        <v>3.875</v>
-      </c>
-      <c r="L79">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B80" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C80" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D80">
-        <v>41</v>
-      </c>
-      <c r="E80">
-        <v>4.1</v>
-      </c>
-      <c r="F80">
-        <v>4</v>
-      </c>
-      <c r="G80">
-        <v>3.975</v>
-      </c>
-      <c r="H80">
-        <v>4.075</v>
-      </c>
-      <c r="I80">
-        <v>3.9</v>
-      </c>
-      <c r="J80">
-        <v>3.85</v>
-      </c>
-      <c r="K80">
-        <v>3.875</v>
-      </c>
-      <c r="L80">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B81" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C81" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D81">
-        <v>41</v>
-      </c>
-      <c r="E81">
-        <v>4.1</v>
-      </c>
-      <c r="F81">
-        <v>4</v>
-      </c>
-      <c r="G81">
-        <v>3.975</v>
-      </c>
-      <c r="H81">
-        <v>4.075</v>
-      </c>
-      <c r="I81">
-        <v>3.9</v>
-      </c>
-      <c r="J81">
-        <v>3.85</v>
-      </c>
-      <c r="K81">
-        <v>3.875</v>
-      </c>
-      <c r="L81">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B82" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C82" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D82">
-        <v>41</v>
-      </c>
-      <c r="E82">
-        <v>4.1</v>
-      </c>
-      <c r="F82">
-        <v>4</v>
-      </c>
-      <c r="G82">
-        <v>3.975</v>
-      </c>
-      <c r="H82">
-        <v>4.075</v>
-      </c>
-      <c r="I82">
-        <v>3.9</v>
-      </c>
-      <c r="J82">
-        <v>3.85</v>
-      </c>
-      <c r="K82">
-        <v>3.875</v>
-      </c>
-      <c r="L82">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B83" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C83" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D83">
-        <v>41</v>
-      </c>
-      <c r="E83">
-        <v>4.1</v>
-      </c>
-      <c r="F83">
-        <v>4</v>
-      </c>
-      <c r="G83">
-        <v>3.975</v>
-      </c>
-      <c r="H83">
-        <v>4.075</v>
-      </c>
-      <c r="I83">
-        <v>3.9</v>
-      </c>
-      <c r="J83">
-        <v>3.85</v>
-      </c>
-      <c r="K83">
-        <v>3.875</v>
-      </c>
-      <c r="L83">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B84" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C84" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D84">
-        <v>41</v>
-      </c>
-      <c r="E84">
-        <v>4.1</v>
-      </c>
-      <c r="F84">
-        <v>4</v>
-      </c>
-      <c r="G84">
-        <v>3.975</v>
-      </c>
-      <c r="H84">
-        <v>4.075</v>
-      </c>
-      <c r="I84">
-        <v>3.9</v>
-      </c>
-      <c r="J84">
-        <v>3.85</v>
-      </c>
-      <c r="K84">
-        <v>3.875</v>
-      </c>
-      <c r="L84">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B85" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C85" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D85">
-        <v>41</v>
-      </c>
-      <c r="E85">
-        <v>4.1</v>
-      </c>
-      <c r="F85">
-        <v>4</v>
-      </c>
-      <c r="G85">
-        <v>3.975</v>
-      </c>
-      <c r="H85">
-        <v>4.075</v>
-      </c>
-      <c r="I85">
-        <v>3.9</v>
-      </c>
-      <c r="J85">
-        <v>3.85</v>
-      </c>
-      <c r="K85">
-        <v>3.875</v>
-      </c>
-      <c r="L85">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B86" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C86" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D86">
-        <v>41</v>
-      </c>
-      <c r="E86">
-        <v>4.1</v>
-      </c>
-      <c r="F86">
-        <v>4</v>
-      </c>
-      <c r="G86">
-        <v>3.975</v>
-      </c>
-      <c r="H86">
-        <v>4.075</v>
-      </c>
-      <c r="I86">
-        <v>3.9</v>
-      </c>
-      <c r="J86">
-        <v>3.85</v>
-      </c>
-      <c r="K86">
-        <v>3.875</v>
-      </c>
-      <c r="L86">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B87" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C87" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D87">
-        <v>41</v>
-      </c>
-      <c r="E87">
-        <v>4.1</v>
-      </c>
-      <c r="F87">
-        <v>4</v>
-      </c>
-      <c r="G87">
-        <v>3.975</v>
-      </c>
-      <c r="H87">
-        <v>4.075</v>
-      </c>
-      <c r="I87">
-        <v>3.9</v>
-      </c>
-      <c r="J87">
-        <v>3.85</v>
-      </c>
-      <c r="K87">
-        <v>3.875</v>
-      </c>
-      <c r="L87">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B88" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C88" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D88">
-        <v>41</v>
-      </c>
-      <c r="E88">
-        <v>4.1</v>
-      </c>
-      <c r="F88">
-        <v>4</v>
-      </c>
-      <c r="G88">
-        <v>3.975</v>
-      </c>
-      <c r="H88">
-        <v>4.075</v>
-      </c>
-      <c r="I88">
-        <v>3.9</v>
-      </c>
-      <c r="J88">
-        <v>3.85</v>
-      </c>
-      <c r="K88">
-        <v>3.875</v>
-      </c>
-      <c r="L88">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B89" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C89" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D89">
-        <v>41</v>
-      </c>
-      <c r="E89">
-        <v>4.1</v>
-      </c>
-      <c r="F89">
-        <v>4</v>
-      </c>
-      <c r="G89">
-        <v>3.975</v>
-      </c>
-      <c r="H89">
-        <v>4.075</v>
-      </c>
-      <c r="I89">
-        <v>3.9</v>
-      </c>
-      <c r="J89">
-        <v>3.85</v>
-      </c>
-      <c r="K89">
-        <v>3.875</v>
-      </c>
-      <c r="L89">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B90" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C90" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D90">
-        <v>41</v>
-      </c>
-      <c r="E90">
-        <v>4.1</v>
-      </c>
-      <c r="F90">
-        <v>4</v>
-      </c>
-      <c r="G90">
-        <v>3.975</v>
-      </c>
-      <c r="H90">
-        <v>4.075</v>
-      </c>
-      <c r="I90">
-        <v>3.9</v>
-      </c>
-      <c r="J90">
-        <v>3.85</v>
-      </c>
-      <c r="K90">
-        <v>3.875</v>
-      </c>
-      <c r="L90">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B91" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C91" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D91">
-        <v>41</v>
-      </c>
-      <c r="E91">
-        <v>4.1</v>
-      </c>
-      <c r="F91">
-        <v>4</v>
-      </c>
-      <c r="G91">
-        <v>3.975</v>
-      </c>
-      <c r="H91">
-        <v>4.075</v>
-      </c>
-      <c r="I91">
-        <v>3.9</v>
-      </c>
-      <c r="J91">
-        <v>3.85</v>
-      </c>
-      <c r="K91">
-        <v>3.875</v>
-      </c>
-      <c r="L91">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B92" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C92" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D92">
-        <v>41</v>
-      </c>
-      <c r="E92">
-        <v>4.1</v>
-      </c>
-      <c r="F92">
-        <v>4</v>
-      </c>
-      <c r="G92">
-        <v>3.975</v>
-      </c>
-      <c r="H92">
-        <v>4.075</v>
-      </c>
-      <c r="I92">
-        <v>3.9</v>
-      </c>
-      <c r="J92">
-        <v>3.85</v>
-      </c>
-      <c r="K92">
-        <v>3.875</v>
-      </c>
-      <c r="L92">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B93" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C93" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D93">
-        <v>41</v>
-      </c>
-      <c r="E93">
-        <v>4.1</v>
-      </c>
-      <c r="F93">
-        <v>4</v>
-      </c>
-      <c r="G93">
-        <v>3.975</v>
-      </c>
-      <c r="H93">
-        <v>4.075</v>
-      </c>
-      <c r="I93">
-        <v>3.9</v>
-      </c>
-      <c r="J93">
-        <v>3.85</v>
-      </c>
-      <c r="K93">
-        <v>3.875</v>
-      </c>
-      <c r="L93">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B94" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C94" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D94">
-        <v>41</v>
-      </c>
-      <c r="E94">
-        <v>4.1</v>
-      </c>
-      <c r="F94">
-        <v>4</v>
-      </c>
-      <c r="G94">
-        <v>3.975</v>
-      </c>
-      <c r="H94">
-        <v>4.075</v>
-      </c>
-      <c r="I94">
-        <v>3.9</v>
-      </c>
-      <c r="J94">
-        <v>3.85</v>
-      </c>
-      <c r="K94">
-        <v>3.875</v>
-      </c>
-      <c r="L94">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B95" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C95" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D95">
-        <v>41</v>
-      </c>
-      <c r="E95">
-        <v>4.1</v>
-      </c>
-      <c r="F95">
-        <v>4</v>
-      </c>
-      <c r="G95">
-        <v>3.975</v>
-      </c>
-      <c r="H95">
-        <v>4.075</v>
-      </c>
-      <c r="I95">
-        <v>3.9</v>
-      </c>
-      <c r="J95">
-        <v>3.85</v>
-      </c>
-      <c r="K95">
-        <v>3.875</v>
-      </c>
-      <c r="L95">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B96" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C96" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D96">
-        <v>41</v>
-      </c>
-      <c r="E96">
-        <v>4.1</v>
-      </c>
-      <c r="F96">
-        <v>4</v>
-      </c>
-      <c r="G96">
-        <v>3.975</v>
-      </c>
-      <c r="H96">
-        <v>4.075</v>
-      </c>
-      <c r="I96">
-        <v>3.9</v>
-      </c>
-      <c r="J96">
-        <v>3.85</v>
-      </c>
-      <c r="K96">
-        <v>3.875</v>
-      </c>
-      <c r="L96">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B97" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C97" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D97">
-        <v>41</v>
-      </c>
-      <c r="E97">
-        <v>4.1</v>
-      </c>
-      <c r="F97">
-        <v>4</v>
-      </c>
-      <c r="G97">
-        <v>3.975</v>
-      </c>
-      <c r="H97">
-        <v>4.075</v>
-      </c>
-      <c r="I97">
-        <v>3.9</v>
-      </c>
-      <c r="J97">
-        <v>3.85</v>
-      </c>
-      <c r="K97">
-        <v>3.875</v>
-      </c>
-      <c r="L97">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B98" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C98" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D98">
-        <v>41</v>
-      </c>
-      <c r="E98">
-        <v>4.1</v>
-      </c>
-      <c r="F98">
-        <v>4</v>
-      </c>
-      <c r="G98">
-        <v>3.975</v>
-      </c>
-      <c r="H98">
-        <v>4.075</v>
-      </c>
-      <c r="I98">
-        <v>3.9</v>
-      </c>
-      <c r="J98">
-        <v>3.85</v>
-      </c>
-      <c r="K98">
-        <v>3.875</v>
-      </c>
-      <c r="L98">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B99" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C99" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D99">
-        <v>41</v>
-      </c>
-      <c r="E99">
-        <v>4.1</v>
-      </c>
-      <c r="F99">
-        <v>4</v>
-      </c>
-      <c r="G99">
-        <v>3.975</v>
-      </c>
-      <c r="H99">
-        <v>4.075</v>
-      </c>
-      <c r="I99">
-        <v>3.9</v>
-      </c>
-      <c r="J99">
-        <v>3.85</v>
-      </c>
-      <c r="K99">
-        <v>3.875</v>
-      </c>
-      <c r="L99">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B100" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C100" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D100">
-        <v>41</v>
-      </c>
-      <c r="E100">
-        <v>4.1</v>
-      </c>
-      <c r="F100">
-        <v>4</v>
-      </c>
-      <c r="G100">
-        <v>3.975</v>
-      </c>
-      <c r="H100">
-        <v>4.075</v>
-      </c>
-      <c r="I100">
-        <v>3.9</v>
-      </c>
-      <c r="J100">
-        <v>3.85</v>
-      </c>
-      <c r="K100">
-        <v>3.875</v>
-      </c>
-      <c r="L100">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B101" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C101" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D101">
-        <v>41</v>
-      </c>
-      <c r="E101">
-        <v>4.1</v>
-      </c>
-      <c r="F101">
-        <v>4</v>
-      </c>
-      <c r="G101">
-        <v>3.975</v>
-      </c>
-      <c r="H101">
-        <v>4.075</v>
-      </c>
-      <c r="I101">
-        <v>3.9</v>
-      </c>
-      <c r="J101">
-        <v>3.85</v>
-      </c>
-      <c r="K101">
-        <v>3.875</v>
-      </c>
-      <c r="L101">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B102" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C102" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D102">
-        <v>41</v>
-      </c>
-      <c r="E102">
-        <v>4.1</v>
-      </c>
-      <c r="F102">
-        <v>4</v>
-      </c>
-      <c r="G102">
-        <v>3.975</v>
-      </c>
-      <c r="H102">
-        <v>4.075</v>
-      </c>
-      <c r="I102">
-        <v>3.9</v>
-      </c>
-      <c r="J102">
-        <v>3.85</v>
-      </c>
-      <c r="K102">
-        <v>3.875</v>
-      </c>
-      <c r="L102">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B103" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C103" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D103">
-        <v>41</v>
-      </c>
-      <c r="E103">
-        <v>4.1</v>
-      </c>
-      <c r="F103">
-        <v>4</v>
-      </c>
-      <c r="G103">
-        <v>3.975</v>
-      </c>
-      <c r="H103">
-        <v>4.075</v>
-      </c>
-      <c r="I103">
-        <v>3.9</v>
-      </c>
-      <c r="J103">
-        <v>3.85</v>
-      </c>
-      <c r="K103">
-        <v>3.875</v>
-      </c>
-      <c r="L103">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B104" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C104" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D104">
-        <v>41</v>
-      </c>
-      <c r="E104">
-        <v>4.1</v>
-      </c>
-      <c r="F104">
-        <v>4</v>
-      </c>
-      <c r="G104">
-        <v>3.975</v>
-      </c>
-      <c r="H104">
-        <v>4.075</v>
-      </c>
-      <c r="I104">
-        <v>3.9</v>
-      </c>
-      <c r="J104">
-        <v>3.85</v>
-      </c>
-      <c r="K104">
-        <v>3.875</v>
-      </c>
-      <c r="L104">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B105" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C105" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D105">
-        <v>41</v>
-      </c>
-      <c r="E105">
-        <v>4.1</v>
-      </c>
-      <c r="F105">
-        <v>4</v>
-      </c>
-      <c r="G105">
-        <v>3.975</v>
-      </c>
-      <c r="H105">
-        <v>4.075</v>
-      </c>
-      <c r="I105">
-        <v>3.9</v>
-      </c>
-      <c r="J105">
-        <v>3.85</v>
-      </c>
-      <c r="K105">
-        <v>3.875</v>
-      </c>
-      <c r="L105">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B106" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C106" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D106">
-        <v>41</v>
-      </c>
-      <c r="E106">
-        <v>4.1</v>
-      </c>
-      <c r="F106">
-        <v>4</v>
-      </c>
-      <c r="G106">
-        <v>3.975</v>
-      </c>
-      <c r="H106">
-        <v>4.075</v>
-      </c>
-      <c r="I106">
-        <v>3.9</v>
-      </c>
-      <c r="J106">
-        <v>3.85</v>
-      </c>
-      <c r="K106">
-        <v>3.875</v>
-      </c>
-      <c r="L106">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B107" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C107" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D107">
-        <v>41</v>
-      </c>
-      <c r="E107">
-        <v>4.1</v>
-      </c>
-      <c r="F107">
-        <v>4</v>
-      </c>
-      <c r="G107">
-        <v>3.975</v>
-      </c>
-      <c r="H107">
-        <v>4.075</v>
-      </c>
-      <c r="I107">
-        <v>3.9</v>
-      </c>
-      <c r="J107">
-        <v>3.85</v>
-      </c>
-      <c r="K107">
-        <v>3.875</v>
-      </c>
-      <c r="L107">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B108" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C108" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D108">
-        <v>41</v>
-      </c>
-      <c r="E108">
-        <v>4.1</v>
-      </c>
-      <c r="F108">
-        <v>4</v>
-      </c>
-      <c r="G108">
-        <v>3.975</v>
-      </c>
-      <c r="H108">
-        <v>4.075</v>
-      </c>
-      <c r="I108">
-        <v>3.9</v>
-      </c>
-      <c r="J108">
-        <v>3.85</v>
-      </c>
-      <c r="K108">
-        <v>3.875</v>
-      </c>
-      <c r="L108">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B109" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C109" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D109">
-        <v>41</v>
-      </c>
-      <c r="E109">
-        <v>4.1</v>
-      </c>
-      <c r="F109">
-        <v>4</v>
-      </c>
-      <c r="G109">
-        <v>3.975</v>
-      </c>
-      <c r="H109">
-        <v>4.075</v>
-      </c>
-      <c r="I109">
-        <v>3.9</v>
-      </c>
-      <c r="J109">
-        <v>3.85</v>
-      </c>
-      <c r="K109">
-        <v>3.875</v>
-      </c>
-      <c r="L109">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B110" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C110" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D110">
-        <v>41</v>
-      </c>
-      <c r="E110">
-        <v>4.1</v>
-      </c>
-      <c r="F110">
-        <v>4</v>
-      </c>
-      <c r="G110">
-        <v>3.975</v>
-      </c>
-      <c r="H110">
-        <v>4.075</v>
-      </c>
-      <c r="I110">
-        <v>3.9</v>
-      </c>
-      <c r="J110">
-        <v>3.85</v>
-      </c>
-      <c r="K110">
-        <v>3.875</v>
-      </c>
-      <c r="L110">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B111" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C111" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D111">
-        <v>41</v>
-      </c>
-      <c r="E111">
-        <v>4.1</v>
-      </c>
-      <c r="F111">
-        <v>4</v>
-      </c>
-      <c r="G111">
-        <v>3.975</v>
-      </c>
-      <c r="H111">
-        <v>4.075</v>
-      </c>
-      <c r="I111">
-        <v>3.9</v>
-      </c>
-      <c r="J111">
-        <v>3.85</v>
-      </c>
-      <c r="K111">
-        <v>3.875</v>
-      </c>
-      <c r="L111">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B112" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C112" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D112">
-        <v>41</v>
-      </c>
-      <c r="E112">
-        <v>4.1</v>
-      </c>
-      <c r="F112">
-        <v>4</v>
-      </c>
-      <c r="G112">
-        <v>3.975</v>
-      </c>
-      <c r="H112">
-        <v>4.075</v>
-      </c>
-      <c r="I112">
-        <v>3.9</v>
-      </c>
-      <c r="J112">
-        <v>3.85</v>
-      </c>
-      <c r="K112">
-        <v>3.875</v>
-      </c>
-      <c r="L112">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B113" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C113" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D113">
-        <v>41</v>
-      </c>
-      <c r="E113">
-        <v>4.1</v>
-      </c>
-      <c r="F113">
-        <v>4</v>
-      </c>
-      <c r="G113">
-        <v>3.975</v>
-      </c>
-      <c r="H113">
-        <v>4.075</v>
-      </c>
-      <c r="I113">
-        <v>3.9</v>
-      </c>
-      <c r="J113">
-        <v>3.85</v>
-      </c>
-      <c r="K113">
-        <v>3.875</v>
-      </c>
-      <c r="L113">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B114" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C114" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D114">
-        <v>41</v>
-      </c>
-      <c r="E114">
-        <v>4.1</v>
-      </c>
-      <c r="F114">
-        <v>4</v>
-      </c>
-      <c r="G114">
-        <v>3.975</v>
-      </c>
-      <c r="H114">
-        <v>4.075</v>
-      </c>
-      <c r="I114">
-        <v>3.9</v>
-      </c>
-      <c r="J114">
-        <v>3.85</v>
-      </c>
-      <c r="K114">
-        <v>3.875</v>
-      </c>
-      <c r="L114">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B115" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C115" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D115">
-        <v>41</v>
-      </c>
-      <c r="E115">
-        <v>4.1</v>
-      </c>
-      <c r="F115">
-        <v>4</v>
-      </c>
-      <c r="G115">
-        <v>3.975</v>
-      </c>
-      <c r="H115">
-        <v>4.075</v>
-      </c>
-      <c r="I115">
-        <v>3.9</v>
-      </c>
-      <c r="J115">
-        <v>3.85</v>
-      </c>
-      <c r="K115">
-        <v>3.875</v>
-      </c>
-      <c r="L115">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B116" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C116" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D116">
-        <v>41</v>
-      </c>
-      <c r="E116">
-        <v>4.1</v>
-      </c>
-      <c r="F116">
-        <v>4</v>
-      </c>
-      <c r="G116">
-        <v>3.975</v>
-      </c>
-      <c r="H116">
-        <v>4.075</v>
-      </c>
-      <c r="I116">
-        <v>3.9</v>
-      </c>
-      <c r="J116">
-        <v>3.85</v>
-      </c>
-      <c r="K116">
-        <v>3.875</v>
-      </c>
-      <c r="L116">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B117" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C117" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D117">
-        <v>41</v>
-      </c>
-      <c r="E117">
-        <v>4.1</v>
-      </c>
-      <c r="F117">
-        <v>4</v>
-      </c>
-      <c r="G117">
-        <v>3.975</v>
-      </c>
-      <c r="H117">
-        <v>4.075</v>
-      </c>
-      <c r="I117">
-        <v>3.9</v>
-      </c>
-      <c r="J117">
-        <v>3.85</v>
-      </c>
-      <c r="K117">
-        <v>3.875</v>
-      </c>
-      <c r="L117">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B118" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C118" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D118">
-        <v>41</v>
-      </c>
-      <c r="E118">
-        <v>4.1</v>
-      </c>
-      <c r="F118">
-        <v>4</v>
-      </c>
-      <c r="G118">
-        <v>3.975</v>
-      </c>
-      <c r="H118">
-        <v>4.075</v>
-      </c>
-      <c r="I118">
-        <v>3.9</v>
-      </c>
-      <c r="J118">
-        <v>3.85</v>
-      </c>
-      <c r="K118">
-        <v>3.875</v>
-      </c>
-      <c r="L118">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B119" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C119" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D119">
-        <v>41</v>
-      </c>
-      <c r="E119">
-        <v>4.1</v>
-      </c>
-      <c r="F119">
-        <v>4</v>
-      </c>
-      <c r="G119">
-        <v>3.975</v>
-      </c>
-      <c r="H119">
-        <v>4.075</v>
-      </c>
-      <c r="I119">
-        <v>3.9</v>
-      </c>
-      <c r="J119">
-        <v>3.85</v>
-      </c>
-      <c r="K119">
-        <v>3.875</v>
-      </c>
-      <c r="L119">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B120" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C120" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D120">
-        <v>41</v>
-      </c>
-      <c r="E120">
-        <v>4.1</v>
-      </c>
-      <c r="F120">
-        <v>4</v>
-      </c>
-      <c r="G120">
-        <v>3.975</v>
-      </c>
-      <c r="H120">
-        <v>4.075</v>
-      </c>
-      <c r="I120">
-        <v>3.9</v>
-      </c>
-      <c r="J120">
-        <v>3.85</v>
-      </c>
-      <c r="K120">
-        <v>3.875</v>
-      </c>
-      <c r="L120">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B121" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C121" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D121">
-        <v>41</v>
-      </c>
-      <c r="E121">
-        <v>4.1</v>
-      </c>
-      <c r="F121">
-        <v>4</v>
-      </c>
-      <c r="G121">
-        <v>3.975</v>
-      </c>
-      <c r="H121">
-        <v>4.075</v>
-      </c>
-      <c r="I121">
-        <v>3.9</v>
-      </c>
-      <c r="J121">
-        <v>3.85</v>
-      </c>
-      <c r="K121">
-        <v>3.875</v>
-      </c>
-      <c r="L121">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B122" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C122" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D122">
-        <v>41</v>
-      </c>
-      <c r="E122">
-        <v>4.1</v>
-      </c>
-      <c r="F122">
-        <v>4</v>
-      </c>
-      <c r="G122">
-        <v>3.975</v>
-      </c>
-      <c r="H122">
-        <v>4.075</v>
-      </c>
-      <c r="I122">
-        <v>3.9</v>
-      </c>
-      <c r="J122">
-        <v>3.85</v>
-      </c>
-      <c r="K122">
-        <v>3.875</v>
-      </c>
-      <c r="L122">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B123" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C123" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D123">
-        <v>41</v>
-      </c>
-      <c r="E123">
-        <v>4.1</v>
-      </c>
-      <c r="F123">
-        <v>4</v>
-      </c>
-      <c r="G123">
-        <v>3.975</v>
-      </c>
-      <c r="H123">
-        <v>4.075</v>
-      </c>
-      <c r="I123">
-        <v>3.9</v>
-      </c>
-      <c r="J123">
-        <v>3.85</v>
-      </c>
-      <c r="K123">
-        <v>3.875</v>
-      </c>
-      <c r="L123">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B124" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C124" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D124">
-        <v>41</v>
-      </c>
-      <c r="E124">
-        <v>4.1</v>
-      </c>
-      <c r="F124">
-        <v>4</v>
-      </c>
-      <c r="G124">
-        <v>3.975</v>
-      </c>
-      <c r="H124">
-        <v>4.075</v>
-      </c>
-      <c r="I124">
-        <v>3.9</v>
-      </c>
-      <c r="J124">
-        <v>3.85</v>
-      </c>
-      <c r="K124">
-        <v>3.875</v>
-      </c>
-      <c r="L124">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B125" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C125" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D125">
-        <v>41</v>
-      </c>
-      <c r="E125">
-        <v>4.1</v>
-      </c>
-      <c r="F125">
-        <v>4</v>
-      </c>
-      <c r="G125">
-        <v>3.975</v>
-      </c>
-      <c r="H125">
-        <v>4.075</v>
-      </c>
-      <c r="I125">
-        <v>3.9</v>
-      </c>
-      <c r="J125">
-        <v>3.85</v>
-      </c>
-      <c r="K125">
-        <v>3.875</v>
-      </c>
-      <c r="L125">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B126" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C126" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D126">
-        <v>41</v>
-      </c>
-      <c r="E126">
-        <v>4.1</v>
-      </c>
-      <c r="F126">
-        <v>4</v>
-      </c>
-      <c r="G126">
-        <v>3.975</v>
-      </c>
-      <c r="H126">
-        <v>4.075</v>
-      </c>
-      <c r="I126">
-        <v>3.9</v>
-      </c>
-      <c r="J126">
-        <v>3.85</v>
-      </c>
-      <c r="K126">
-        <v>3.875</v>
-      </c>
-      <c r="L126">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="str">
-        <v>Ms. S. Abiramy</v>
-      </c>
-      <c r="B127" t="str">
-        <v>OBM1902</v>
-      </c>
-      <c r="C127" t="str">
-        <v>BM73</v>
-      </c>
-      <c r="D127">
-        <v>41</v>
-      </c>
-      <c r="E127">
-        <v>4.1</v>
-      </c>
-      <c r="F127">
-        <v>4</v>
-      </c>
-      <c r="G127">
-        <v>3.975</v>
-      </c>
-      <c r="H127">
-        <v>4.075</v>
-      </c>
-      <c r="I127">
-        <v>3.9</v>
-      </c>
-      <c r="J127">
-        <v>3.85</v>
-      </c>
-      <c r="K127">
-        <v>3.875</v>
-      </c>
-      <c r="L127">
-        <v>4.1</v>
+        <v>8.2</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L127"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K19"/>
   </ignoredErrors>
 </worksheet>
 </file>